--- a/sputnik/personal/ee/332ee.xlsx
+++ b/sputnik/personal/ee/332ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -11,28 +11,19 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -42,35 +33,32 @@
     <t xml:space="preserve">кВт/ч к оплате </t>
   </si>
   <si>
-    <t>01.09.20018</t>
-  </si>
-  <si>
-    <t>доплатить 7-0,5=6,50р.</t>
-  </si>
-  <si>
-    <t>переплата</t>
-  </si>
-  <si>
-    <t>доплатить 6,50р. -1,50р = 5,00</t>
-  </si>
-  <si>
-    <t>доплатить 5,00р. -0,60р = 4,40</t>
-  </si>
-  <si>
-    <t>доплатить 4,40р. - 1,50р = 2,90</t>
-  </si>
-  <si>
-    <t>доплатить 2,90р. - 1,50р = 1,40</t>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>к доплате</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,14 +82,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
@@ -109,8 +89,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -151,10 +130,10 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
-      </right>
-      <top/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -164,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -177,39 +156,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -272,7 +236,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -304,10 +268,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -339,7 +302,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -515,17 +477,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
@@ -533,407 +495,306 @@
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="4">
-        <v>43225</v>
+        <v>43379</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>22040</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="3">
+        <v>23090</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="4">
-        <v>43246</v>
+        <v>43620</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3">
-        <v>22340</v>
+        <v>23190</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" ref="D3:D9" si="0">C3-C2</f>
-        <v>300</v>
-      </c>
-      <c r="E3" s="3">
-        <v>4.29</v>
-      </c>
-      <c r="F3" s="6">
-        <f t="shared" ref="F3:F8" si="1">D3*E3</f>
-        <v>1287</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="D3:D4" si="0">C3-C2</f>
+        <v>100</v>
+      </c>
+      <c r="E3" s="8">
+        <v>4.57</v>
+      </c>
+      <c r="F3" s="13">
+        <f t="shared" ref="F3" si="1">D3*E3</f>
+        <v>457</v>
+      </c>
+      <c r="G3" s="11">
+        <v>457</v>
+      </c>
+      <c r="H3" s="11">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="4">
-        <v>43288</v>
+        <v>43649</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>22640</v>
+        <v>23240</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="E4" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="F4" s="6">
-        <f t="shared" si="1"/>
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4.49</v>
+      </c>
+      <c r="F4" s="13">
+        <f>D4*E4</f>
+        <v>224.5</v>
+      </c>
+      <c r="G4" s="11">
+        <v>224.5</v>
+      </c>
+      <c r="H4" s="11">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="4">
-        <v>43316</v>
+        <v>43690</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="3">
-        <v>22890</v>
+        <v>23390</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-      <c r="E5" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="F5" s="6">
-        <f t="shared" si="1"/>
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
+        <f>C5-C4</f>
+        <v>150</v>
+      </c>
+      <c r="E5" s="12">
+        <v>4.49</v>
+      </c>
+      <c r="F5" s="13">
+        <f>D5*E5</f>
+        <v>673.5</v>
+      </c>
+      <c r="G5" s="11">
+        <v>673.5</v>
+      </c>
+      <c r="H5" s="11">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="4">
+        <v>43713</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>22990</v>
+        <v>23450</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="E6" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="F6" s="6">
-        <f t="shared" si="1"/>
-        <v>450</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <f>C6-C5</f>
+        <v>60</v>
+      </c>
+      <c r="E6" s="12">
+        <v>4.49</v>
+      </c>
+      <c r="F6" s="13">
+        <f>D6*E6</f>
+        <v>269.40000000000003</v>
+      </c>
+      <c r="G6" s="11">
+        <v>269.39999999999998</v>
+      </c>
+      <c r="H6" s="11">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="4">
-        <v>43379</v>
+        <v>43741</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="3">
-        <v>23090</v>
+        <v>23600</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="E7" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="F7" s="6">
-        <f t="shared" si="1"/>
-        <v>450</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <f>C7-C6</f>
+        <v>150</v>
+      </c>
+      <c r="E7" s="12">
+        <v>4.49</v>
+      </c>
+      <c r="F7" s="13">
+        <f>D7*E7</f>
+        <v>673.5</v>
+      </c>
+      <c r="G7" s="11">
+        <v>673.5</v>
+      </c>
+      <c r="H7" s="11">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="4">
-        <v>43620</v>
+        <v>43761</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>23190</v>
+        <v>23750</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="E8" s="15">
-        <v>4.57</v>
-      </c>
-      <c r="F8" s="16">
-        <f t="shared" si="1"/>
-        <v>457</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <f>C8-C7</f>
+        <v>150</v>
+      </c>
+      <c r="E8" s="12">
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="13">
+        <f>D8*E8</f>
+        <v>673.5</v>
+      </c>
+      <c r="G8" s="11">
+        <v>673.5</v>
+      </c>
+      <c r="H8" s="11">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="4">
-        <v>43649</v>
+        <v>43797</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="3">
-        <v>23240</v>
+        <v>23850</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="E9" s="15">
+        <f>C9-C8</f>
+        <v>100</v>
+      </c>
+      <c r="E9" s="12">
         <v>4.49</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="13">
         <f>D9*E9</f>
-        <v>224.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="G9" s="11">
+        <v>449</v>
+      </c>
+      <c r="H9" s="11">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="4">
+        <v>43822</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>23950</v>
+      </c>
+      <c r="D10" s="3">
+        <f>C10-C9</f>
+        <v>100</v>
+      </c>
+      <c r="E10" s="12">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="13">
+        <f>D10*E10</f>
+        <v>449</v>
+      </c>
+      <c r="G10" s="11">
+        <v>449</v>
+      </c>
+      <c r="H10" s="11">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>43690</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3">
-        <v>23390</v>
-      </c>
-      <c r="D11" s="3">
-        <f>C11-C9</f>
-        <v>150</v>
-      </c>
-      <c r="E11" s="15">
-        <v>4.49</v>
-      </c>
-      <c r="F11" s="16">
-        <f>D11*E11</f>
-        <v>673.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>43690</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="18" t="s">
+      <c r="G11" s="11">
+        <f>SUM(G2:G10)</f>
+        <v>3869.4</v>
+      </c>
+      <c r="H11" s="11">
+        <f>SUM(H2:H10)</f>
+        <v>3870</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="16">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>43713</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3">
-        <v>23450</v>
-      </c>
-      <c r="D14" s="3">
-        <f>C14-C11</f>
-        <v>60</v>
-      </c>
-      <c r="E14" s="15">
-        <v>4.49</v>
-      </c>
-      <c r="F14" s="16">
-        <f>D14*E14</f>
-        <v>269.40000000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>43741</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="3">
-        <v>23600</v>
-      </c>
-      <c r="D16" s="3">
-        <f>C16-C14</f>
-        <v>150</v>
-      </c>
-      <c r="E16" s="15">
-        <v>4.49</v>
-      </c>
-      <c r="F16" s="16">
-        <f>D16*E16</f>
-        <v>673.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>43761</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="3">
-        <v>23750</v>
-      </c>
-      <c r="D18" s="3">
-        <f>C18-C16</f>
-        <v>150</v>
-      </c>
-      <c r="E18" s="15">
-        <v>4.49</v>
-      </c>
-      <c r="F18" s="16">
-        <f>D18*E18</f>
-        <v>673.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>43797</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="3">
-        <v>23850</v>
-      </c>
-      <c r="D20" s="3">
-        <f>C20-C18</f>
-        <v>100</v>
-      </c>
-      <c r="E20" s="15">
-        <v>4.49</v>
-      </c>
-      <c r="F20" s="16">
-        <f>D20*E20</f>
-        <v>449</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>43822</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="3">
-        <v>23950</v>
-      </c>
-      <c r="D21" s="3">
-        <f>C21-C20</f>
-        <v>100</v>
-      </c>
-      <c r="E21" s="15">
-        <v>4.49</v>
-      </c>
-      <c r="F21" s="16">
-        <f>D21*E21</f>
-        <v>449</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11">
+        <f>SUM(H11,-G11)</f>
+        <v>0.59999999999990905</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -943,12 +804,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -957,12 +818,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/332ee.xlsx
+++ b/sputnik/personal/ee/332ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -54,11 +54,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,7 +236,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -268,9 +268,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -302,6 +303,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -477,17 +479,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
@@ -502,7 +504,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="52.5" customHeight="1">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -528,7 +530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>43379</v>
       </c>
@@ -544,7 +546,7 @@
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>43620</v>
       </c>
@@ -572,7 +574,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43649</v>
       </c>
@@ -590,7 +592,7 @@
         <v>4.49</v>
       </c>
       <c r="F4" s="13">
-        <f>D4*E4</f>
+        <f t="shared" ref="F4:F10" si="2">D4*E4</f>
         <v>224.5</v>
       </c>
       <c r="G4" s="11">
@@ -600,7 +602,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>43690</v>
       </c>
@@ -611,14 +613,14 @@
         <v>23390</v>
       </c>
       <c r="D5" s="3">
-        <f>C5-C4</f>
+        <f t="shared" ref="D5:D10" si="3">C5-C4</f>
         <v>150</v>
       </c>
       <c r="E5" s="12">
         <v>4.49</v>
       </c>
       <c r="F5" s="13">
-        <f>D5*E5</f>
+        <f t="shared" si="2"/>
         <v>673.5</v>
       </c>
       <c r="G5" s="11">
@@ -628,7 +630,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>43713</v>
       </c>
@@ -639,14 +641,14 @@
         <v>23450</v>
       </c>
       <c r="D6" s="3">
-        <f>C6-C5</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="E6" s="12">
         <v>4.49</v>
       </c>
       <c r="F6" s="13">
-        <f>D6*E6</f>
+        <f t="shared" si="2"/>
         <v>269.40000000000003</v>
       </c>
       <c r="G6" s="11">
@@ -656,7 +658,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>43741</v>
       </c>
@@ -667,14 +669,14 @@
         <v>23600</v>
       </c>
       <c r="D7" s="3">
-        <f>C7-C6</f>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="E7" s="12">
         <v>4.49</v>
       </c>
       <c r="F7" s="13">
-        <f>D7*E7</f>
+        <f t="shared" si="2"/>
         <v>673.5</v>
       </c>
       <c r="G7" s="11">
@@ -684,7 +686,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>43761</v>
       </c>
@@ -695,14 +697,14 @@
         <v>23750</v>
       </c>
       <c r="D8" s="3">
-        <f>C8-C7</f>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="E8" s="12">
         <v>4.49</v>
       </c>
       <c r="F8" s="13">
-        <f>D8*E8</f>
+        <f t="shared" si="2"/>
         <v>673.5</v>
       </c>
       <c r="G8" s="11">
@@ -712,7 +714,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>43797</v>
       </c>
@@ -723,14 +725,14 @@
         <v>23850</v>
       </c>
       <c r="D9" s="3">
-        <f>C9-C8</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="E9" s="12">
         <v>4.49</v>
       </c>
       <c r="F9" s="13">
-        <f>D9*E9</f>
+        <f t="shared" si="2"/>
         <v>449</v>
       </c>
       <c r="G9" s="11">
@@ -740,7 +742,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>43822</v>
       </c>
@@ -751,14 +753,14 @@
         <v>23950</v>
       </c>
       <c r="D10" s="3">
-        <f>C10-C9</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="E10" s="12">
         <v>4.49</v>
       </c>
       <c r="F10" s="13">
-        <f>D10*E10</f>
+        <f t="shared" si="2"/>
         <v>449</v>
       </c>
       <c r="G10" s="11">
@@ -768,32 +770,60 @@
         <v>450</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="2" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>44014</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>24110</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" ref="D11" si="4">C11-C10</f>
+        <v>160</v>
+      </c>
+      <c r="E11" s="12">
+        <v>4.49</v>
+      </c>
+      <c r="F11" s="13">
+        <f t="shared" ref="F11" si="5">D11*E11</f>
+        <v>718.40000000000009</v>
+      </c>
+      <c r="G11" s="11">
+        <v>718.4</v>
+      </c>
+      <c r="H11" s="11">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="11">
-        <f>SUM(G2:G10)</f>
-        <v>3869.4</v>
-      </c>
-      <c r="H11" s="11">
-        <f>SUM(H2:H10)</f>
-        <v>3870</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="11">
+        <f>SUM(G2:G11)</f>
+        <v>4587.8</v>
+      </c>
+      <c r="H12" s="11">
+        <f>SUM(H2:H11)</f>
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11">
-        <f>SUM(H11,-G11)</f>
-        <v>0.59999999999990905</v>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11">
+        <f>SUM(H12,-G12)</f>
+        <v>2.1999999999998181</v>
       </c>
     </row>
   </sheetData>
@@ -804,12 +834,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -818,12 +848,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/332ee.xlsx
+++ b/sputnik/personal/ee/332ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -483,10 +483,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -781,14 +781,14 @@
         <v>24110</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" ref="D11" si="4">C11-C10</f>
+        <f>C11-C10</f>
         <v>160</v>
       </c>
       <c r="E11" s="12">
         <v>4.49</v>
       </c>
       <c r="F11" s="13">
-        <f t="shared" ref="F11" si="5">D11*E11</f>
+        <f t="shared" ref="F11" si="4">D11*E11</f>
         <v>718.40000000000009</v>
       </c>
       <c r="G11" s="11">
@@ -799,31 +799,87 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="2" t="s">
+      <c r="A12" s="4">
+        <v>44351</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>24310</v>
+      </c>
+      <c r="D12" s="3">
+        <f>C12-C11</f>
+        <v>200</v>
+      </c>
+      <c r="E12" s="12">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="13">
+        <f t="shared" ref="F12" si="5">D12*E12</f>
+        <v>942</v>
+      </c>
+      <c r="G12" s="11">
+        <v>942</v>
+      </c>
+      <c r="H12" s="11">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>44351</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>25000</v>
+      </c>
+      <c r="D13" s="3">
+        <f>C13-C12</f>
+        <v>690</v>
+      </c>
+      <c r="E13" s="12">
+        <v>4.71</v>
+      </c>
+      <c r="F13" s="13">
+        <f t="shared" ref="F13" si="6">D13*E13</f>
+        <v>3249.9</v>
+      </c>
+      <c r="G13" s="11">
+        <v>3249.9</v>
+      </c>
+      <c r="H13" s="11">
+        <v>3249.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="11">
-        <f>SUM(G2:G11)</f>
-        <v>4587.8</v>
-      </c>
-      <c r="H12" s="11">
-        <f>SUM(H2:H11)</f>
-        <v>4590</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F13" s="2" t="s">
+      <c r="G14" s="11">
+        <f>SUM(G3:G13)</f>
+        <v>8779.7000000000007</v>
+      </c>
+      <c r="H14" s="11">
+        <f>SUM(H3:H13)</f>
+        <v>8781.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11">
-        <f>SUM(H12,-G12)</f>
-        <v>2.1999999999998181</v>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11">
+        <f>SUM(H14,-G14)</f>
+        <v>2.1999999999989086</v>
       </c>
     </row>
   </sheetData>
